--- a/SPIV_Setting _V02.xlsx
+++ b/SPIV_Setting _V02.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIV-POWER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A8703-67E8-46B2-945A-F75CDB62A58B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C2124-0672-404C-8D80-5DEDA4B6D204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regulation" sheetId="5" r:id="rId1"/>
     <sheet name="Load" sheetId="6" r:id="rId2"/>
     <sheet name="Line" sheetId="7" r:id="rId3"/>
     <sheet name="Eff" sheetId="8" r:id="rId4"/>
+    <sheet name="Basic" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="65">
   <si>
     <t>Imax</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,13 +159,123 @@
   <si>
     <t>&lt;Voltage_2&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKTOPK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Voltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Voltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Galatus</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Post RevA CR3</t>
+  </si>
+  <si>
+    <t>PCB Varsion</t>
+  </si>
+  <si>
+    <t>18H06-4</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Prepared by</t>
+  </si>
+  <si>
+    <t>Max YC Chen</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Testting Date</t>
+  </si>
+  <si>
+    <t>Testting Place</t>
+  </si>
+  <si>
+    <t>Wistron Hardware Laboratory</t>
+  </si>
+  <si>
+    <t>Testing Environment</t>
+  </si>
+  <si>
+    <t>Testing Equipments - Scope</t>
+  </si>
+  <si>
+    <t>Testing Equipments - Probe</t>
+  </si>
+  <si>
+    <t>Regulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20 ℃   25 ℃     50 ℃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,8 +299,79 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +396,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -238,13 +456,289 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,9 +754,167 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="116">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 10" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 10 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 10 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 10 4" xfId="29" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 11" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 11 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 11 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="一般 11 2 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="一般 11 2 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="一般 11 2 3 2" xfId="103" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="一般 11 2 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="一般 11 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="一般 11 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="一般 11 5" xfId="18" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="一般 11 6" xfId="85" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="一般 12" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="一般 12 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="一般 12 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="一般 12 4" xfId="23" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="一般 13" xfId="52" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="一般 14" xfId="41" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="一般 15" xfId="51" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="一般 16" xfId="42" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="一般 17" xfId="43" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="一般 18" xfId="44" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="一般 19" xfId="45" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="一般 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="一般 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="一般 2 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="一般 2 4" xfId="19" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="一般 2 5" xfId="115" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="一般 2 6" xfId="83" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="一般 20" xfId="55" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="一般 21" xfId="49" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="一般 22" xfId="38" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="一般 23" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="一般 24" xfId="58" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="一般 25" xfId="59" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="一般 25 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="一般 25 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="一般 26" xfId="21" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="一般 27" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="一般 28" xfId="17" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="一般 29" xfId="82" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="一般 29 2" xfId="114" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="一般 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="一般 3 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="一般 3 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="一般 3 2 2 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="一般 3 2 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="一般 3 2 3 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="一般 3 2 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="一般 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="一般 3 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="一般 3 3 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="一般 3 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="一般 3 4" xfId="75" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="一般 3 4 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="一般 3 5" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="一般 3 5 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="一般 3 6" xfId="32" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="一般 3 6 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="一般 3 7" xfId="20" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="一般 3 7 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="一般 3 8" xfId="84" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="一般 30" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="一般 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="一般 4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="一般 4 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="一般 4 3 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="一般 4 3 2 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="一般 4 3 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="一般 4 4" xfId="69" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="一般 4 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="一般 4 5" xfId="60" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="一般 4 5 2" xfId="99" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="一般 4 6" xfId="24" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="一般 4 6 2" xfId="89" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="一般 4 7" xfId="15" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="一般 4 7 2" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="一般 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="一般 5 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="一般 5 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="一般 5 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="一般 5 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="一般 5 3 3" xfId="93" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="一般 5 4" xfId="70" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="一般 5 4 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="一般 5 5" xfId="61" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="一般 5 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="一般 5 6" xfId="25" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="一般 5 6 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="一般 5 7" xfId="16" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="一般 5 7 2" xfId="87" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="一般 6" xfId="7" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="一般 6 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="一般 6 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="一般 6 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="一般 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="一般 7 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="一般 7 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="一般 7 2 2 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="一般 7 2 3" xfId="63" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="一般 7 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="一般 7 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="一般 7 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="一般 7 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="一般 8" xfId="9" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="一般 8 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="一般 8 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="一般 9" xfId="10" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="一般 9 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="一般 9 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="一般 9 4" xfId="28" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="超連結 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -574,13 +1226,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
@@ -598,7 +1250,7 @@
     <col min="14" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -641,8 +1293,23 @@
       <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -686,7 +1353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -730,7 +1397,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -774,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -818,7 +1485,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -871,22 +1538,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -917,8 +1589,23 @@
       <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -950,7 +1637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -982,7 +1669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1023,22 +1710,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="24.6" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1072,8 +1765,23 @@
       <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1106,7 +1814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +1849,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1176,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1919,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1255,21 +1963,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1288,8 +2003,23 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +2039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1329,7 +2059,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1349,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +2099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1394,4 +2124,987 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C97EC8-FCEE-410B-AE35-121BC01CAE3B}">
+  <dimension ref="A1:BO134"/>
+  <sheetViews>
+    <sheetView topLeftCell="AZ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.88671875" style="16"/>
+    <col min="9" max="9" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="8.88671875" style="16"/>
+    <col min="24" max="38" width="8.88671875" style="16"/>
+    <col min="40" max="55" width="8.88671875" style="16"/>
+    <col min="57" max="62" width="8.88671875" style="16"/>
+    <col min="63" max="63" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="X1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AN1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
+      <c r="BL1" s="19"/>
+      <c r="BM1" s="19"/>
+      <c r="BN1" s="19"/>
+      <c r="BO1" s="19"/>
+    </row>
+    <row r="2" spans="1:67">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67">
+      <c r="A4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="12">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="10">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" ht="31.2">
+      <c r="A8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:67">
+      <c r="A11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:67">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:67">
+      <c r="A13" s="8"/>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:67">
+      <c r="A14" s="8"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:67">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:67">
+      <c r="A16" s="8"/>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="10"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="10"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="14"/>
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="14"/>
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="14"/>
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="14"/>
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="14"/>
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="14"/>
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="14"/>
+      <c r="B71" s="10"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="10"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="10"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="14"/>
+      <c r="B74" s="10"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="14"/>
+      <c r="B78" s="10"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="14"/>
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="14"/>
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="14"/>
+      <c r="B82" s="10"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="14"/>
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="14"/>
+      <c r="B84" s="10"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="14"/>
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="6"/>
+      <c r="B94" s="12"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="6"/>
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="6"/>
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="12"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="6"/>
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="6"/>
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="12"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="6"/>
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="6"/>
+      <c r="B103" s="12"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="6"/>
+      <c r="B104" s="12"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="6"/>
+      <c r="B105" s="12"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="6"/>
+      <c r="B106" s="12"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="6"/>
+      <c r="B107" s="12"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="6"/>
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="6"/>
+      <c r="B110" s="12"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="6"/>
+      <c r="B111" s="12"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="6"/>
+      <c r="B112" s="12"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="6"/>
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="6"/>
+      <c r="B114" s="12"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="6"/>
+      <c r="B115" s="12"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="15"/>
+      <c r="B116" s="17"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="15"/>
+      <c r="B117" s="17"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="15"/>
+      <c r="B118" s="17"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="15"/>
+      <c r="B119" s="17"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="15"/>
+      <c r="B120" s="17"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="15"/>
+      <c r="B121" s="17"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="15"/>
+      <c r="B122" s="17"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="15"/>
+      <c r="B123" s="17"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="15"/>
+      <c r="B124" s="17"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="15"/>
+      <c r="B125" s="17"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="15"/>
+      <c r="B126" s="17"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="15"/>
+      <c r="B127" s="17"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="15"/>
+      <c r="B128" s="17"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="15"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="15"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="15"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="15"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AN1:BC1"/>
+    <mergeCell ref="BE1:BO1"/>
+    <mergeCell ref="D1:V1"/>
+    <mergeCell ref="X1:AL1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SPIV_Setting _V02.xlsx
+++ b/SPIV_Setting _V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIV-POWER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C2124-0672-404C-8D80-5DEDA4B6D204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113C523D-BF3B-46E1-9A77-60913E93F4B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regulation" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="66">
   <si>
     <t>Imax</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,10 @@
   </si>
   <si>
     <t>-20 ℃   25 ℃     50 ℃</t>
+  </si>
+  <si>
+    <t>5000mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1540,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1648,7 +1652,7 @@
         <v>3.6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3">
         <v>5.25</v>
@@ -1680,7 +1684,7 @@
         <v>4.2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3">
         <v>5.25</v>
@@ -1965,7 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
